--- a/stock_to-do_list.xlsx
+++ b/stock_to-do_list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A500E840-045A-4604-84A8-BF44E21DD725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F9D1ED-A40A-4C27-91F3-195FE2567424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To-do list" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Created screen_portfolio_stocks.py &amp; screen_portfolio_stocks.bat. Modified Task Schedular -&gt; Stock Screener to run screen_portfolio_stocks.bat.</t>
   </si>
   <si>
-    <t>compare Yahoo to Schwab metrics</t>
-  </si>
-  <si>
     <t>Create portfolio_metric_history table</t>
   </si>
   <si>
@@ -128,6 +125,27 @@
   </si>
   <si>
     <t>display recient_screened_stocks (top_five + portfolio) on screener page</t>
+  </si>
+  <si>
+    <t>validate metric calcs. &amp; weights &amp; consider others for use</t>
+  </si>
+  <si>
+    <t>consider other metrics peRatio(trailing/forware)…</t>
+  </si>
+  <si>
+    <t>add high, mid, low ranges to metric_weights table</t>
+  </si>
+  <si>
+    <t>NEW ITEM</t>
+  </si>
+  <si>
+    <t>refactor portfolioi_metric_weights - Server apis Client secreener &amp; admin.</t>
+  </si>
+  <si>
+    <t>STOP Order @ 1.00% of stock value….</t>
+  </si>
+  <si>
+    <t>compare metrics to Finiviz metrics</t>
   </si>
 </sst>
 </file>
@@ -465,7 +483,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -523,12 +541,6 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -562,22 +574,7 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1050,8 +1047,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F3069E3-F47B-46B9-847E-ABBC3255F41C}" name="ToDoList2" displayName="ToDoList2" ref="B5:J25" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B5:J25" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F3069E3-F47B-46B9-847E-ABBC3255F41C}" name="ToDoList2" displayName="ToDoList2" ref="B5:J29" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B5:J29" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1325,10 +1322,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J30"/>
+  <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1413,7 +1410,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -1428,18 +1425,18 @@
       <c r="F6" s="15">
         <v>45319</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>1</v>
       </c>
       <c r="H6" s="18"/>
-      <c r="I6" s="23">
+      <c r="I6" s="21">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>1</v>
       </c>
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -1454,18 +1451,18 @@
       <c r="F7" s="15">
         <v>45319</v>
       </c>
-      <c r="G7" s="22">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23">
+      <c r="G7" s="20">
+        <v>1</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="21">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>1</v>
       </c>
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1480,44 +1477,44 @@
       <c r="F8" s="15">
         <v>45322</v>
       </c>
-      <c r="G8" s="22">
-        <v>1</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23">
+      <c r="G8" s="20">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="21">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>1</v>
       </c>
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="24">
         <v>45324</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="24">
         <v>45324</v>
       </c>
-      <c r="G9" s="22">
-        <v>1</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28">
+      <c r="G9" s="20">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>1</v>
       </c>
-      <c r="J9" s="29"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -1532,70 +1529,70 @@
       <c r="F10" s="15">
         <v>45323</v>
       </c>
-      <c r="G10" s="22">
-        <v>1</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23">
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>1</v>
       </c>
       <c r="J10" s="16"/>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="24">
         <v>45335</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="24">
         <v>45335</v>
       </c>
-      <c r="G11" s="22">
-        <v>1</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28">
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>1</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="24">
         <v>45335</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="24">
         <v>45335</v>
       </c>
-      <c r="G12" s="22">
-        <v>1</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28">
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>1</v>
       </c>
-      <c r="J12" s="29"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -1610,18 +1607,18 @@
       <c r="F13" s="15">
         <v>45336</v>
       </c>
-      <c r="G13" s="22">
-        <v>1</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="28">
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>1</v>
       </c>
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -1636,295 +1633,397 @@
       <c r="F14" s="15">
         <v>45336</v>
       </c>
-      <c r="G14" s="22">
-        <v>1</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23">
+      <c r="G14" s="20">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="21">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>1</v>
       </c>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="24">
         <v>45337</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="24">
         <v>45337</v>
       </c>
-      <c r="G15" s="22">
-        <v>1</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28">
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>1</v>
       </c>
-      <c r="J15" s="29"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="24">
+        <v>45393</v>
+      </c>
+      <c r="F16" s="24">
+        <v>45393</v>
+      </c>
+      <c r="G16" s="20">
+        <v>1</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E17" s="24">
         <v>45393</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F17" s="24">
         <v>45393</v>
       </c>
-      <c r="G16" s="22">
-        <v>1</v>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28">
+      <c r="G17" s="20">
+        <v>1</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>1</v>
       </c>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="26">
-        <v>45393</v>
-      </c>
-      <c r="F17" s="26">
-        <v>45393</v>
-      </c>
-      <c r="G17" s="22">
-        <v>1</v>
-      </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28">
-        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="29"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="2:10" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
-        <v>25</v>
+      <c r="B18" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="31">
+        <v>6</v>
+      </c>
+      <c r="E18" s="29">
         <v>45389</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="29">
         <v>45393</v>
       </c>
-      <c r="G18" s="22">
-        <v>1</v>
-      </c>
+      <c r="G18" s="20">
+        <v>1</v>
+      </c>
+      <c r="I18" s="26">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="24">
+        <v>45395</v>
+      </c>
+      <c r="F19" s="24">
+        <v>45395</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="26">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
-        <v>30</v>
+      <c r="B20" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E20" s="15">
         <v>45377</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="22">
-        <v>0</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="F20" s="15">
+        <v>45395</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="26">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="24">
+        <v>45421</v>
+      </c>
+      <c r="F21" s="24">
+        <v>45442</v>
+      </c>
+      <c r="G21" s="20">
+        <v>1</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="26">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="2:10" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="24">
+        <v>45444</v>
+      </c>
+      <c r="F22" s="24">
+        <v>45449</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="26">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="27"/>
+    </row>
+    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="24">
+        <v>45481</v>
+      </c>
+      <c r="F23" s="24">
+        <v>45504</v>
+      </c>
+      <c r="G23" s="20">
+        <v>1</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="26">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="27"/>
+    </row>
+    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="26">
-        <v>45393</v>
-      </c>
-      <c r="F21" s="26">
-        <v>45395</v>
-      </c>
-      <c r="G21" s="22">
-        <v>0</v>
-      </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28">
+      <c r="E24" s="24">
+        <v>45454</v>
+      </c>
+      <c r="F24" s="24">
+        <v>45477</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="2:10" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="37" t="s">
+      <c r="J24" s="27"/>
+    </row>
+    <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="34">
-        <v>45395</v>
-      </c>
-      <c r="F22" s="34">
-        <v>45395</v>
-      </c>
-      <c r="G22" s="22">
+      <c r="D25" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="24">
+        <v>45478</v>
+      </c>
+      <c r="F25" s="24">
+        <v>45481</v>
+      </c>
+      <c r="G25" s="20">
         <v>0</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="36">
+      <c r="H25" s="23"/>
+      <c r="I25" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="J22" s="35"/>
-    </row>
-    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28">
+      <c r="J25" s="27"/>
+    </row>
+    <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="19"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="J23" s="35"/>
-    </row>
-    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28">
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="J24" s="29"/>
-    </row>
-    <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="22">
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="20">
         <v>0</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28">
+      <c r="H28" s="23"/>
+      <c r="I28" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="J25" s="29"/>
-    </row>
-    <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="19"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="19"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="16"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="19"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="26">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="19"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="16"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="19"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G6:G18 G20:G26">
-    <cfRule type="expression" dxfId="1" priority="65">
+  <conditionalFormatting sqref="G6:G31">
+    <cfRule type="expression" dxfId="1" priority="110">
       <formula>$B$5&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="66">
+    <cfRule type="expression" dxfId="0" priority="111">
       <formula>$G6&gt;23%</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="67">
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1949,16 +2048,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="B5" xr:uid="{B38182F7-EC84-40F6-BA2D-AE0DE877BF4C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="C3" xr:uid="{1457F039-B3D5-448A-837F-D49E8A0FCBAC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list in this worksheet. Enter the year for this list in cell C3." sqref="A1" xr:uid="{31932FD4-B517-4C1F-BA15-487E3106AB53}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C20:C26 C6:C17" xr:uid="{45A78372-DA0A-4A0C-A95D-4D40A472B4C2}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C6:C17 C19:C31" xr:uid="{45A78372-DA0A-4A0C-A95D-4D40A472B4C2}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D20:D26 D6:D17" xr:uid="{1746B7BF-78E5-4E54-BE88-5E8C6CA65263}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D6:D17 D19:D31" xr:uid="{1746B7BF-78E5-4E54-BE88-5E8C6CA65263}">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F6:F17 F20:F21 F23:F26" xr:uid="{9F2D2676-BBD6-4B2B-92C4-2398C4119CE3}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F6:F17 F20:F21" xr:uid="{9F2D2676-BBD6-4B2B-92C4-2398C4119CE3}">
       <formula1>F6&gt;=E6</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G6:G18 G20:G26" xr:uid="{4468E986-E743-4C01-AC99-D8FD9FCB07FE}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G6:G31" xr:uid="{4468E986-E743-4C01-AC99-D8FD9FCB07FE}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1983,10 +2082,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G6:G18 G20:G26</xm:sqref>
+          <xm:sqref>G6:G31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="55" id="{3608503F-5218-4E3A-A640-EFD947534BA8}">
+          <x14:cfRule type="iconSet" priority="116" id="{3608503F-5218-4E3A-A640-EFD947534BA8}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2002,7 +2101,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I20:I21 I23:I26 I6:I17</xm:sqref>
+          <xm:sqref>I6:I31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2011,6 +2110,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2028,15 +2136,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2352,6 +2451,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2359,14 +2466,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/stock_to-do_list.xlsx
+++ b/stock_to-do_list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F9D1ED-A40A-4C27-91F3-195FE2567424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3E8FC1-A864-47D4-8FF5-A989AEC1F272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To-do list" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -142,10 +142,10 @@
     <t>refactor portfolioi_metric_weights - Server apis Client secreener &amp; admin.</t>
   </si>
   <si>
-    <t>STOP Order @ 1.00% of stock value….</t>
-  </si>
-  <si>
-    <t>compare metrics to Finiviz metrics</t>
+    <t>Create Stock Evaluation Excel Table</t>
+  </si>
+  <si>
+    <t>Add Sustainability To Metrics Weighs Table</t>
   </si>
 </sst>
 </file>
@@ -323,6 +323,7 @@
       <sz val="8"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,18 +331,21 @@
       <sz val="8"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="3"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1324,8 +1328,8 @@
   </sheetPr>
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1883,7 +1887,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E24" s="24">
         <v>45454</v>
@@ -1897,28 +1901,28 @@
       <c r="H24" s="23"/>
       <c r="I24" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J24" s="27"/>
     </row>
     <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>27</v>
+      <c r="D25" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="E25" s="24">
-        <v>45478</v>
+        <v>45500</v>
       </c>
       <c r="F25" s="24">
-        <v>45481</v>
+        <v>45503</v>
       </c>
       <c r="G25" s="20">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="26">
@@ -1928,12 +1932,24 @@
       <c r="J25" s="27"/>
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="20"/>
+      <c r="B26" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="24">
+        <v>45500</v>
+      </c>
+      <c r="F26" s="24">
+        <v>45503</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0</v>
+      </c>
       <c r="H26" s="23"/>
       <c r="I26" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
@@ -1943,7 +1959,7 @@
     </row>
     <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -1980,7 +1996,9 @@
       <c r="J28" s="27"/>
     </row>
     <row r="29" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
+      <c r="B29" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="24"/>
@@ -2110,35 +2128,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2450,27 +2439,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AE6ABC-1788-4F26-8B46-F996683B878B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2491,6 +2489,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/stock_to-do_list.xlsx
+++ b/stock_to-do_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3E8FC1-A864-47D4-8FF5-A989AEC1F272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE23A93-BC61-48D1-8FA6-D4A2684A1C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
     <t>Create Stock Evaluation Excel Table</t>
   </si>
   <si>
-    <t>Add Sustainability To Metrics Weighs Table</t>
+    <t>Change Stock Manager -&gt; Screener intitial secreen criteria to compare stockYTD to "3-Year Avg. Return" -&gt; /stock/v2/get-summary?symbol=XLK&amp;region=US ???</t>
   </si>
 </sst>
 </file>
@@ -1328,8 +1328,8 @@
   </sheetPr>
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1942,10 +1942,10 @@
         <v>16</v>
       </c>
       <c r="E26" s="24">
-        <v>45500</v>
+        <v>45502</v>
       </c>
       <c r="F26" s="24">
-        <v>45503</v>
+        <v>45511</v>
       </c>
       <c r="G26" s="20">
         <v>0</v>
@@ -2440,6 +2440,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2457,15 +2466,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2490,6 +2490,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2501,14 +2509,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/stock_to-do_list.xlsx
+++ b/stock_to-do_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE23A93-BC61-48D1-8FA6-D4A2684A1C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC11DAF7-5C63-412E-AE5F-9F1FAC2FA554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t>Task</t>
   </si>
@@ -145,7 +145,16 @@
     <t>Create Stock Evaluation Excel Table</t>
   </si>
   <si>
-    <t>Change Stock Manager -&gt; Screener intitial secreen criteria to compare stockYTD to "3-Year Avg. Return" -&gt; /stock/v2/get-summary?symbol=XLK&amp;region=US ???</t>
+    <t>Use Piotorski F-score for initial screeneing…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add: 
+  Eernings Per Share, Current Ratio, Return On Equtiy (ROE) &amp; Dividend Yield.
+Keep: trailing_pe &amp; forward_pe, price_to_book, debt_to_equity free_cashflow_per_share, peg_ratio
+  </t>
+  </si>
+  <si>
+    <t>8/302024</t>
   </si>
 </sst>
 </file>
@@ -1328,8 +1337,8 @@
   </sheetPr>
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1919,7 +1928,7 @@
         <v>45500</v>
       </c>
       <c r="F25" s="24">
-        <v>45503</v>
+        <v>45534</v>
       </c>
       <c r="G25" s="20">
         <v>0.75</v>
@@ -1944,8 +1953,8 @@
       <c r="E26" s="24">
         <v>45502</v>
       </c>
-      <c r="F26" s="24">
-        <v>45511</v>
+      <c r="F26" s="15">
+        <v>45534</v>
       </c>
       <c r="G26" s="20">
         <v>0</v>
@@ -1959,13 +1968,23 @@
     </row>
     <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="20"/>
+        <v>37</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="24">
+        <v>45503</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
       <c r="H27" s="23"/>
       <c r="I27" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
@@ -1978,7 +1997,7 @@
         <v>33</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>27</v>
@@ -2440,15 +2459,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2466,6 +2476,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2490,14 +2509,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2509,6 +2520,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/stock_to-do_list.xlsx
+++ b/stock_to-do_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC11DAF7-5C63-412E-AE5F-9F1FAC2FA554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D3008E-A286-4EA2-88E5-CAAC84E580F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>Task</t>
   </si>
@@ -148,13 +148,17 @@
     <t>Use Piotorski F-score for initial screeneing…</t>
   </si>
   <si>
-    <t xml:space="preserve">Add: 
-  Eernings Per Share, Current Ratio, Return On Equtiy (ROE) &amp; Dividend Yield.
-Keep: trailing_pe &amp; forward_pe, price_to_book, debt_to_equity free_cashflow_per_share, peg_ratio
-  </t>
-  </si>
-  <si>
     <t>8/302024</t>
+  </si>
+  <si>
+    <t>Add: 
+  Eernings Per Share, Return On Equtiy (ROE) &amp; Dividend Yield.
+Keep:
+  trailing_pe &amp; forward_pe, price_to_book, debt_to_equity,
+  free_cashflow_per_share, peg_ratio, quick_ratio, debt_to_asset_ratio</t>
+  </si>
+  <si>
+    <t>Add sold &amp; date_sold to acquisitions table-</t>
   </si>
 </sst>
 </file>
@@ -168,7 +172,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -362,6 +366,24 @@
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Century Gothic"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="3"/>
+      <name val="Century Gothic"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Century Gothic"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -496,7 +518,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -588,6 +610,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1060,8 +1097,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F3069E3-F47B-46B9-847E-ABBC3255F41C}" name="ToDoList2" displayName="ToDoList2" ref="B5:J29" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B5:J29" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F3069E3-F47B-46B9-847E-ABBC3255F41C}" name="ToDoList2" displayName="ToDoList2" ref="B5:J30" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B5:J30" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1335,10 +1372,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J31"/>
+  <dimension ref="B1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1915,49 +1952,49 @@
       <c r="J24" s="27"/>
     </row>
     <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="24">
-        <v>45500</v>
-      </c>
-      <c r="F25" s="24">
+      <c r="E25" s="33">
+        <v>45502</v>
+      </c>
+      <c r="F25" s="33">
         <v>45534</v>
       </c>
       <c r="G25" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="34">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="J25" s="27"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="24">
-        <v>45502</v>
-      </c>
-      <c r="F26" s="15">
+        <v>45500</v>
+      </c>
+      <c r="F26" s="24">
         <v>45534</v>
       </c>
       <c r="G26" s="20">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="26">
@@ -1968,7 +2005,7 @@
     </row>
     <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>20</v>
@@ -1977,10 +2014,10 @@
         <v>16</v>
       </c>
       <c r="E27" s="24">
-        <v>45503</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>38</v>
+        <v>45502</v>
+      </c>
+      <c r="F27" s="15">
+        <v>45534</v>
       </c>
       <c r="G27" s="20">
         <v>0</v>
@@ -1992,18 +2029,22 @@
       </c>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="E28" s="24">
+        <v>45503</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G28" s="20">
         <v>0</v>
       </c>
@@ -2018,11 +2059,17 @@
       <c r="B29" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="20">
+        <v>0</v>
+      </c>
       <c r="H29" s="23"/>
       <c r="I29" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
@@ -2031,14 +2078,19 @@
       <c r="J29" s="27"/>
     </row>
     <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
+      <c r="B30" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="20"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="26"/>
+      <c r="I30" s="26">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
       <c r="J30" s="27"/>
     </row>
     <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2052,15 +2104,26 @@
       <c r="I31" s="26"/>
       <c r="J31" s="27"/>
     </row>
+    <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="19"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G6:G31">
-    <cfRule type="expression" dxfId="1" priority="110">
+  <conditionalFormatting sqref="G6:G32">
+    <cfRule type="expression" dxfId="1" priority="117">
       <formula>$B$5&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="111">
+    <cfRule type="expression" dxfId="0" priority="118">
       <formula>$G6&gt;23%</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="112">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2085,16 +2148,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="B5" xr:uid="{B38182F7-EC84-40F6-BA2D-AE0DE877BF4C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="C3" xr:uid="{1457F039-B3D5-448A-837F-D49E8A0FCBAC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list in this worksheet. Enter the year for this list in cell C3." sqref="A1" xr:uid="{31932FD4-B517-4C1F-BA15-487E3106AB53}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C6:C17 C19:C31" xr:uid="{45A78372-DA0A-4A0C-A95D-4D40A472B4C2}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C6:C17 C27:C32 C19:C26" xr:uid="{45A78372-DA0A-4A0C-A95D-4D40A472B4C2}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D6:D17 D19:D31" xr:uid="{1746B7BF-78E5-4E54-BE88-5E8C6CA65263}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D6:D17 D27:D32 D19:D26" xr:uid="{1746B7BF-78E5-4E54-BE88-5E8C6CA65263}">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F6:F17 F20:F21" xr:uid="{9F2D2676-BBD6-4B2B-92C4-2398C4119CE3}">
       <formula1>F6&gt;=E6</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G6:G31" xr:uid="{4468E986-E743-4C01-AC99-D8FD9FCB07FE}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G27:G32 G6:G26" xr:uid="{4468E986-E743-4C01-AC99-D8FD9FCB07FE}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2110,17 +2173,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{61258F3C-C643-4C60-BE90-3CF6D653ACA0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G6:G31</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="116" id="{3608503F-5218-4E3A-A640-EFD947534BA8}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
@@ -2138,7 +2190,18 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I6:I31</xm:sqref>
+          <xm:sqref>I6:I32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{61258F3C-C643-4C60-BE90-3CF6D653ACA0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G6:G32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/stock_to-do_list.xlsx
+++ b/stock_to-do_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D3008E-A286-4EA2-88E5-CAAC84E580F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D2716D-43F7-4B56-BD25-12EADB3CE875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -612,19 +612,16 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1952,30 +1949,30 @@
       <c r="J24" s="27"/>
     </row>
     <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="32">
         <v>45502</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="32">
         <v>45534</v>
       </c>
       <c r="G25" s="20">
         <v>0.5</v>
       </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="34">
+      <c r="H25" s="31"/>
+      <c r="I25" s="33">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="J25" s="35"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
@@ -2174,6 +2171,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{61258F3C-C643-4C60-BE90-3CF6D653ACA0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G6:G32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="116" id="{3608503F-5218-4E3A-A640-EFD947534BA8}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
@@ -2191,17 +2199,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>I6:I32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{61258F3C-C643-4C60-BE90-3CF6D653ACA0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G6:G32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2522,6 +2519,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2539,15 +2545,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2572,6 +2569,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2583,14 +2588,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/stock_to-do_list.xlsx
+++ b/stock_to-do_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D2716D-43F7-4B56-BD25-12EADB3CE875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D84F7B5-8871-46B8-9471-21BE0EAE3D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,14 +151,14 @@
     <t>8/302024</t>
   </si>
   <si>
+    <t>Add sold &amp; date_sold to acquisitions table-</t>
+  </si>
+  <si>
     <t>Add: 
-  Eernings Per Share, Return On Equtiy (ROE) &amp; Dividend Yield.
+  Eernings Per Share, Return On Equtiy (ROE) Net Income/Shareholder Equity &amp; Dividend Yield.
 Keep:
   trailing_pe &amp; forward_pe, price_to_book, debt_to_equity,
   free_cashflow_per_share, peg_ratio, quick_ratio, debt_to_asset_ratio</t>
-  </si>
-  <si>
-    <t>Add sold &amp; date_sold to acquisitions table-</t>
   </si>
 </sst>
 </file>
@@ -1371,8 +1371,8 @@
   </sheetPr>
   <dimension ref="B1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>20</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="28" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>20</v>
@@ -2519,15 +2519,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2545,6 +2536,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2569,14 +2569,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2588,6 +2580,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/stock_to-do_list.xlsx
+++ b/stock_to-do_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D84F7B5-8871-46B8-9471-21BE0EAE3D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E876EAB-7AE4-4F76-AA13-C78C54B897EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,7 +155,7 @@
   </si>
   <si>
     <t>Add: 
-  Eernings Per Share, Return On Equtiy (ROE) Net Income/Shareholder Equity &amp; Dividend Yield.
+  Eernings Per Share, Return On Equtiy (ROE) Net Income/Shareholder Equity,             dividend yield &amp; esg-scores
 Keep:
   trailing_pe &amp; forward_pe, price_to_book, debt_to_equity,
   free_cashflow_per_share, peg_ratio, quick_ratio, debt_to_asset_ratio</t>
@@ -1371,14 +1371,14 @@
   </sheetPr>
   <dimension ref="B1:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="53" style="5" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="5" customWidth="1"/>
     <col min="3" max="7" width="17.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="1.625" style="5" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="5" customWidth="1"/>
@@ -2519,6 +2519,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2536,15 +2545,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2569,6 +2569,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2580,14 +2588,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/stock_to-do_list.xlsx
+++ b/stock_to-do_list.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E876EAB-7AE4-4F76-AA13-C78C54B897EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4004D97E-71F8-46F9-A147-6EFC902BF672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t>Task</t>
   </si>
@@ -151,14 +151,8 @@
     <t>8/302024</t>
   </si>
   <si>
-    <t>Add sold &amp; date_sold to acquisitions table-</t>
-  </si>
-  <si>
-    <t>Add: 
-  Eernings Per Share, Return On Equtiy (ROE) Net Income/Shareholder Equity,             dividend yield &amp; esg-scores
-Keep:
-  trailing_pe &amp; forward_pe, price_to_book, debt_to_equity,
-  free_cashflow_per_share, peg_ratio, quick_ratio, debt_to_asset_ratio</t>
+    <t>Use following value indicators: peRatio, ROE, EPS, dividend yield, esg-scores,
+price-to-book, debt_to_equity, free_cashflow_per_share, peg_ratio, qick_ratio, debt_to_asset_ratio</t>
   </si>
 </sst>
 </file>
@@ -172,7 +166,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -366,24 +360,6 @@
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Century Gothic"/>
       <family val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Century Gothic"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="3"/>
-      <name val="Century Gothic"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Century Gothic"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -518,7 +494,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -610,18 +586,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1094,8 +1058,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F3069E3-F47B-46B9-847E-ABBC3255F41C}" name="ToDoList2" displayName="ToDoList2" ref="B5:J30" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B5:J30" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F3069E3-F47B-46B9-847E-ABBC3255F41C}" name="ToDoList2" displayName="ToDoList2" ref="B5:J29" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B5:J29" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1369,10 +1333,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J32"/>
+  <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1950,59 +1914,59 @@
     </row>
     <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="32">
-        <v>45502</v>
-      </c>
-      <c r="F25" s="32">
+      <c r="E25" s="24">
+        <v>45500</v>
+      </c>
+      <c r="F25" s="24">
         <v>45534</v>
       </c>
       <c r="G25" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="J25" s="34"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>16</v>
+      <c r="D26" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="E26" s="24">
-        <v>45500</v>
-      </c>
-      <c r="F26" s="24">
+        <v>45502</v>
+      </c>
+      <c r="F26" s="15">
         <v>45534</v>
       </c>
       <c r="G26" s="20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J26" s="27"/>
     </row>
-    <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>20</v>
@@ -2011,13 +1975,13 @@
         <v>16</v>
       </c>
       <c r="E27" s="24">
-        <v>45502</v>
-      </c>
-      <c r="F27" s="15">
-        <v>45534</v>
+        <v>45503</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G27" s="20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="26">
@@ -2026,22 +1990,18 @@
       </c>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="24">
-        <v>45503</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>37</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="20">
         <v>0</v>
       </c>
@@ -2056,17 +2016,11 @@
       <c r="B29" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="20">
-        <v>0</v>
-      </c>
+      <c r="G29" s="20"/>
       <c r="H29" s="23"/>
       <c r="I29" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
@@ -2075,19 +2029,14 @@
       <c r="J29" s="27"/>
     </row>
     <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="B30" s="19"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="20"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="26">
-        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
+      <c r="I30" s="26"/>
       <c r="J30" s="27"/>
     </row>
     <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2101,26 +2050,15 @@
       <c r="I31" s="26"/>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="27"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="G6:G32">
-    <cfRule type="expression" dxfId="1" priority="117">
+  <conditionalFormatting sqref="G6:G31">
+    <cfRule type="expression" dxfId="1" priority="120">
       <formula>$B$5&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="118">
+    <cfRule type="expression" dxfId="0" priority="121">
       <formula>$G6&gt;23%</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="119">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2133,7 +2071,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="15">
+  <dataValidations disablePrompts="1" count="15">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="J4 B3" xr:uid="{B034133F-01EC-4D9A-B2D4-1EA8925B313B}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="J5" xr:uid="{843DDAAF-51D0-4990-B417-8C9B04C8F328}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. An open circle indicates overdue tasks. A closed circle indicates completed tasks" sqref="I5" xr:uid="{580BCAC0-15C5-4A86-B684-5D33F017D075}"/>
@@ -2145,16 +2083,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="B5" xr:uid="{B38182F7-EC84-40F6-BA2D-AE0DE877BF4C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="C3" xr:uid="{1457F039-B3D5-448A-837F-D49E8A0FCBAC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list in this worksheet. Enter the year for this list in cell C3." sqref="A1" xr:uid="{31932FD4-B517-4C1F-BA15-487E3106AB53}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C6:C17 C27:C32 C19:C26" xr:uid="{45A78372-DA0A-4A0C-A95D-4D40A472B4C2}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C6:C17 C19:C31" xr:uid="{45A78372-DA0A-4A0C-A95D-4D40A472B4C2}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D6:D17 D27:D32 D19:D26" xr:uid="{1746B7BF-78E5-4E54-BE88-5E8C6CA65263}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D6:D17 D19:D31" xr:uid="{1746B7BF-78E5-4E54-BE88-5E8C6CA65263}">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F6:F17 F20:F21" xr:uid="{9F2D2676-BBD6-4B2B-92C4-2398C4119CE3}">
       <formula1>F6&gt;=E6</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G27:G32 G6:G26" xr:uid="{4468E986-E743-4C01-AC99-D8FD9FCB07FE}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G6:G31" xr:uid="{4468E986-E743-4C01-AC99-D8FD9FCB07FE}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2179,10 +2117,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G6:G32</xm:sqref>
+          <xm:sqref>G6:G31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="116" id="{3608503F-5218-4E3A-A640-EFD947534BA8}">
+          <x14:cfRule type="iconSet" priority="126" id="{3608503F-5218-4E3A-A640-EFD947534BA8}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2198,7 +2136,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I6:I32</xm:sqref>
+          <xm:sqref>I6:I31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2519,15 +2457,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2545,6 +2474,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2569,14 +2507,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2588,6 +2518,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/stock_to-do_list.xlsx
+++ b/stock_to-do_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4004D97E-71F8-46F9-A147-6EFC902BF672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FAB31F-71CC-4D25-914B-43F61F08FED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>Task</t>
   </si>
@@ -151,8 +151,11 @@
     <t>8/302024</t>
   </si>
   <si>
-    <t>Use following value indicators: peRatio, ROE, EPS, dividend yield, esg-scores,
-price-to-book, debt_to_equity, free_cashflow_per_share, peg_ratio, qick_ratio, debt_to_asset_ratio</t>
+    <t>Use following value indicators: peRatio, ROE, ROA, EPS, dividend yield,
+esg-scores, price-to-book, debt_to_equity, free_cashflow_per_share, peg_ratio, qick_ratio, debt_to_asset_ratio</t>
+  </si>
+  <si>
+    <t>Still need EPS</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1339,7 @@
   <dimension ref="B1:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1981,14 +1984,16 @@
         <v>37</v>
       </c>
       <c r="G27" s="20">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="J27" s="27"/>
+      <c r="J27" s="16" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="19" t="s">
@@ -2457,6 +2462,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2474,15 +2488,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2507,6 +2512,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2518,14 +2531,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/stock_to-do_list.xlsx
+++ b/stock_to-do_list.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FAB31F-71CC-4D25-914B-43F61F08FED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3635B491-3104-4D93-A1FF-635DBEC6BD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -85,9 +85,6 @@
     <t>run "screener_tests"-"test_screen_sector stocks" with sector=""Information Technology"</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>run "screener_tests"-"test_insert_stat_history" with portfolio stock="NEE"</t>
   </si>
   <si>
@@ -146,16 +143,10 @@
   </si>
   <si>
     <t>Use Piotorski F-score for initial screeneing…</t>
-  </si>
-  <si>
-    <t>8/302024</t>
   </si>
   <si>
     <t>Use following value indicators: peRatio, ROE, ROA, EPS, dividend yield,
 esg-scores, price-to-book, debt_to_equity, free_cashflow_per_share, peg_ratio, qick_ratio, debt_to_asset_ratio</t>
-  </si>
-  <si>
-    <t>Still need EPS</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1330,7 @@
   <dimension ref="B1:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1503,7 +1494,7 @@
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>4</v>
@@ -1529,7 +1520,7 @@
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>4</v>
@@ -1555,7 +1546,7 @@
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>4</v>
@@ -1581,10 +1572,10 @@
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>6</v>
@@ -1607,7 +1598,7 @@
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>4</v>
@@ -1659,10 +1650,10 @@
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>6</v>
@@ -1685,10 +1676,10 @@
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>6</v>
@@ -1711,10 +1702,10 @@
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>6</v>
@@ -1737,10 +1728,10 @@
     </row>
     <row r="18" spans="2:10" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>6</v>
@@ -1761,10 +1752,10 @@
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>6</v>
@@ -1787,10 +1778,10 @@
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>6</v>
@@ -1813,10 +1804,10 @@
     </row>
     <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>6</v>
@@ -1839,10 +1830,10 @@
     </row>
     <row r="22" spans="2:10" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>6</v>
@@ -1865,10 +1856,10 @@
     </row>
     <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>6</v>
@@ -1891,10 +1882,10 @@
     </row>
     <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>6</v>
@@ -1917,13 +1908,13 @@
     </row>
     <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E25" s="24">
         <v>45500</v>
@@ -1932,21 +1923,21 @@
         <v>45534</v>
       </c>
       <c r="G25" s="20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J25" s="27"/>
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>6</v>
@@ -1969,41 +1960,39 @@
     </row>
     <row r="27" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E27" s="24">
         <v>45503</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>37</v>
+      <c r="F27" s="15">
+        <v>45551</v>
       </c>
       <c r="G27" s="20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -2019,7 +2008,7 @@
     </row>
     <row r="29" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -2076,7 +2065,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="15">
+  <dataValidations count="15">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter year for this to-do list in this cell" sqref="J4 B3" xr:uid="{B034133F-01EC-4D9A-B2D4-1EA8925B313B}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="J5" xr:uid="{843DDAAF-51D0-4990-B417-8C9B04C8F328}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Done/Overdue icon indicators in this column under this heading are automatically updated as tasks complete. An open circle indicates overdue tasks. A closed circle indicates completed tasks" sqref="I5" xr:uid="{580BCAC0-15C5-4A86-B684-5D33F017D075}"/>
@@ -2462,15 +2451,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2488,6 +2468,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2512,14 +2501,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2531,6 +2512,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/stock_to-do_list.xlsx
+++ b/stock_to-do_list.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3635B491-3104-4D93-A1FF-635DBEC6BD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E646F7A5-056C-4263-B12A-5FA5ED127474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>Task</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Alter recent_screened_stocks table (add metrics)</t>
-  </si>
-  <si>
-    <t>Not Started</t>
   </si>
   <si>
     <t>Schedule portfolio stocks screen for one month intervals.</t>
@@ -147,6 +144,12 @@
   <si>
     <t>Use following value indicators: peRatio, ROE, ROA, EPS, dividend yield,
 esg-scores, price-to-book, debt_to_equity, free_cashflow_per_share, peg_ratio, qick_ratio, debt_to_asset_ratio</t>
+  </si>
+  <si>
+    <t>Refactor metricss - Server apis Client analyzer</t>
+  </si>
+  <si>
+    <t>Fix Porffolio Metric History Chart y-axis map</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -354,6 +357,24 @@
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Century Gothic"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="3"/>
+      <name val="Century Gothic"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Century Gothic"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -488,7 +509,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -580,6 +601,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1052,8 +1085,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F3069E3-F47B-46B9-847E-ABBC3255F41C}" name="ToDoList2" displayName="ToDoList2" ref="B5:J29" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B5:J29" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F3069E3-F47B-46B9-847E-ABBC3255F41C}" name="ToDoList2" displayName="ToDoList2" ref="B5:J32" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B5:J32" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1327,10 +1360,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J31"/>
+  <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1752,7 +1785,7 @@
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>19</v>
@@ -1778,7 +1811,7 @@
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>19</v>
@@ -1804,7 +1837,7 @@
     </row>
     <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>19</v>
@@ -1830,7 +1863,7 @@
     </row>
     <row r="22" spans="2:10" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>19</v>
@@ -1856,7 +1889,7 @@
     </row>
     <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>19</v>
@@ -1882,7 +1915,7 @@
     </row>
     <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>19</v>
@@ -1908,7 +1941,7 @@
     </row>
     <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>19</v>
@@ -1934,7 +1967,7 @@
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>19</v>
@@ -1960,7 +1993,7 @@
     </row>
     <row r="27" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>19</v>
@@ -1986,18 +2019,22 @@
     </row>
     <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
+        <v>6</v>
+      </c>
+      <c r="E28" s="15">
+        <v>45548</v>
+      </c>
+      <c r="F28" s="24">
+        <v>45580</v>
+      </c>
       <c r="G28" s="20">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="26">
@@ -2008,44 +2045,102 @@
     </row>
     <row r="29" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="26">
+        <v>37</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="32">
+        <v>45568</v>
+      </c>
+      <c r="F29" s="32">
+        <v>45570</v>
+      </c>
+      <c r="G29" s="20">
+        <v>1</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="34"/>
+    </row>
+    <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="33">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="J29" s="27"/>
-    </row>
-    <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
+      <c r="J30" s="34"/>
     </row>
     <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="B31" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="J31" s="34"/>
+    </row>
+    <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="26">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="J32" s="27"/>
+    </row>
+    <row r="33" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+    </row>
+    <row r="34" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="19"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G6:G31">
+  <conditionalFormatting sqref="G6:G34">
     <cfRule type="expression" dxfId="1" priority="120">
       <formula>$B$5&lt;&gt;""</formula>
     </cfRule>
@@ -2077,16 +2172,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="B5" xr:uid="{B38182F7-EC84-40F6-BA2D-AE0DE877BF4C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="C3" xr:uid="{1457F039-B3D5-448A-837F-D49E8A0FCBAC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list in this worksheet. Enter the year for this list in cell C3." sqref="A1" xr:uid="{31932FD4-B517-4C1F-BA15-487E3106AB53}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C6:C17 C19:C31" xr:uid="{45A78372-DA0A-4A0C-A95D-4D40A472B4C2}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C6:C17 C19:C34" xr:uid="{45A78372-DA0A-4A0C-A95D-4D40A472B4C2}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D6:D17 D19:D31" xr:uid="{1746B7BF-78E5-4E54-BE88-5E8C6CA65263}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D6:D17 D19:D34" xr:uid="{1746B7BF-78E5-4E54-BE88-5E8C6CA65263}">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F6:F17 F20:F21" xr:uid="{9F2D2676-BBD6-4B2B-92C4-2398C4119CE3}">
       <formula1>F6&gt;=E6</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G6:G31" xr:uid="{4468E986-E743-4C01-AC99-D8FD9FCB07FE}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G6:G34" xr:uid="{4468E986-E743-4C01-AC99-D8FD9FCB07FE}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2111,7 +2206,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G6:G31</xm:sqref>
+          <xm:sqref>G6:G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="126" id="{3608503F-5218-4E3A-A640-EFD947534BA8}">
@@ -2130,7 +2225,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I6:I31</xm:sqref>
+          <xm:sqref>I6:I34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2139,6 +2234,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2450,36 +2574,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AE6ABC-1788-4F26-8B46-F996683B878B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2500,26 +2615,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/stock_to-do_list.xlsx
+++ b/stock_to-do_list.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E646F7A5-056C-4263-B12A-5FA5ED127474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267687F3-3EDB-4A5B-9BEC-17C9C62D6739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>Task</t>
   </si>
@@ -150,6 +150,66 @@
   </si>
   <si>
     <t>Fix Porffolio Metric History Chart y-axis map</t>
+  </si>
+  <si>
+    <t>Depoly to Laptop</t>
+  </si>
+  <si>
+    <t>Update MySQL Workbench</t>
+  </si>
+  <si>
+    <t>Research Graham Number Formula</t>
+  </si>
+  <si>
+    <t>Fix fscore calc.</t>
+  </si>
+  <si>
+    <t>Refactor logging</t>
+  </si>
+  <si>
+    <t>Refactor screened and portfolio history tables &amp; chart api for empty db tables</t>
+  </si>
+  <si>
+    <t>Create Portfolio_metric_history table Backup DB Manager Item</t>
+  </si>
+  <si>
+    <t>Create "Eval" Daily Returns Chart</t>
+  </si>
+  <si>
+    <t>Remove is_date_ok from inserting portfolio_metric_history &amp; portfolio_stat_history</t>
+  </si>
+  <si>
+    <t>Fix Stock Analyzer -&gt; Portfolio Metric History</t>
+  </si>
+  <si>
+    <t>Add "Avg. Cost" cost to "Stock Chart"</t>
+  </si>
+  <si>
+    <t>Add  Sold to Acquisitions</t>
+  </si>
+  <si>
+    <t>Fix Stock Analyzer -&gt; Retunrs Chart -&gt; Evaulate</t>
+  </si>
+  <si>
+    <t>Fix Graham Number Calc..</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Fix "Ticker Stat Charts"</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Hide/Show Sector  'Sectors" table.</t>
+  </si>
+  <si>
+    <t>Add back mean P/E Ratio</t>
+  </si>
+  <si>
+    <t>Add "Split" to aquasiions</t>
   </si>
 </sst>
 </file>
@@ -509,7 +569,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -613,6 +673,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1085,8 +1160,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F3069E3-F47B-46B9-847E-ABBC3255F41C}" name="ToDoList2" displayName="ToDoList2" ref="B5:J32" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B5:J32" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F3069E3-F47B-46B9-847E-ABBC3255F41C}" name="ToDoList2" displayName="ToDoList2" ref="B5:J50" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B5:J50" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1360,10 +1435,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J34"/>
+  <dimension ref="B1:J52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1394,7 +1469,7 @@
     <row r="3" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10">
         <f ca="1">YEAR(TODAY())</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -2034,12 +2109,12 @@
         <v>45580</v>
       </c>
       <c r="G28" s="20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J28" s="27"/>
     </row>
@@ -2071,83 +2146,539 @@
     </row>
     <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="32">
+        <v>45575</v>
+      </c>
+      <c r="F30" s="32">
+        <v>45576</v>
+      </c>
+      <c r="G30" s="20">
+        <v>1</v>
+      </c>
       <c r="H30" s="31"/>
       <c r="I30" s="33">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J30" s="34"/>
     </row>
     <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="32">
+        <v>45577</v>
+      </c>
+      <c r="F31" s="32">
+        <v>45577</v>
+      </c>
+      <c r="G31" s="20">
+        <v>1</v>
+      </c>
       <c r="H31" s="31"/>
       <c r="I31" s="33">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J31" s="34"/>
     </row>
     <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="32">
+        <v>45582</v>
+      </c>
+      <c r="F32" s="32">
+        <v>45595</v>
+      </c>
+      <c r="G32" s="20">
+        <v>1</v>
+      </c>
+      <c r="H32" s="31"/>
+      <c r="I32" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="34"/>
+    </row>
+    <row r="33" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="32">
+        <v>45621</v>
+      </c>
+      <c r="F33" s="32">
+        <v>45626</v>
+      </c>
+      <c r="G33" s="20">
+        <v>1</v>
+      </c>
+      <c r="H33" s="31"/>
+      <c r="I33" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="34"/>
+    </row>
+    <row r="34" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="32">
+        <v>45667</v>
+      </c>
+      <c r="F34" s="32">
+        <v>45688</v>
+      </c>
+      <c r="G34" s="20">
+        <v>1</v>
+      </c>
+      <c r="H34" s="31"/>
+      <c r="I34" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="34"/>
+    </row>
+    <row r="35" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="32">
+        <v>45667</v>
+      </c>
+      <c r="F35" s="32">
+        <v>45688</v>
+      </c>
+      <c r="G35" s="20">
+        <v>1</v>
+      </c>
+      <c r="H35" s="31"/>
+      <c r="I35" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J35" s="34"/>
+    </row>
+    <row r="36" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="32">
+        <v>45683</v>
+      </c>
+      <c r="F36" s="32">
+        <v>45687</v>
+      </c>
+      <c r="G36" s="20">
+        <v>1</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="34"/>
+    </row>
+    <row r="37" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="32">
+        <v>45683</v>
+      </c>
+      <c r="F37" s="32">
+        <v>45696</v>
+      </c>
+      <c r="G37" s="20">
+        <v>1</v>
+      </c>
+      <c r="H37" s="31"/>
+      <c r="I37" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J37" s="34"/>
+    </row>
+    <row r="38" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="32">
+        <v>45713</v>
+      </c>
+      <c r="F38" s="32">
+        <v>45713</v>
+      </c>
+      <c r="G38" s="20">
+        <v>1</v>
+      </c>
+      <c r="H38" s="31"/>
+      <c r="I38" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J38" s="34"/>
+    </row>
+    <row r="39" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="32">
+        <v>45828</v>
+      </c>
+      <c r="F39" s="32">
+        <v>45838</v>
+      </c>
+      <c r="G39" s="20">
+        <v>1</v>
+      </c>
+      <c r="H39" s="31"/>
+      <c r="I39" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="34"/>
+    </row>
+    <row r="40" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="32">
+        <v>45916</v>
+      </c>
+      <c r="F40" s="32">
+        <v>45928</v>
+      </c>
+      <c r="G40" s="20">
+        <v>1</v>
+      </c>
+      <c r="H40" s="31"/>
+      <c r="I40" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="34"/>
+    </row>
+    <row r="41" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="32">
+        <v>45928</v>
+      </c>
+      <c r="F41" s="35">
+        <v>45944</v>
+      </c>
+      <c r="G41" s="20">
+        <v>1</v>
+      </c>
+      <c r="H41" s="31"/>
+      <c r="I41" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J41" s="34"/>
+    </row>
+    <row r="42" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="32">
+        <v>45933</v>
+      </c>
+      <c r="F42" s="32">
+        <v>45940</v>
+      </c>
+      <c r="G42" s="20">
+        <v>1</v>
+      </c>
+      <c r="H42" s="31"/>
+      <c r="I42" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J42" s="34"/>
+    </row>
+    <row r="43" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="32">
+        <v>45934</v>
+      </c>
+      <c r="F43" s="32">
+        <v>45945</v>
+      </c>
+      <c r="G43" s="20">
+        <v>0</v>
+      </c>
+      <c r="H43" s="31"/>
+      <c r="I43" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="34"/>
+    </row>
+    <row r="44" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="32">
+        <v>45938</v>
+      </c>
+      <c r="F44" s="32">
+        <v>45950</v>
+      </c>
+      <c r="G44" s="20">
+        <v>1</v>
+      </c>
+      <c r="H44" s="31"/>
+      <c r="I44" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J44" s="34"/>
+    </row>
+    <row r="45" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="32">
+        <v>45942</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="J45" s="34"/>
+    </row>
+    <row r="46" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="35">
+        <v>45942</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="J46" s="34"/>
+    </row>
+    <row r="47" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="32">
+        <v>45946</v>
+      </c>
+      <c r="F47" s="32">
+        <v>45947</v>
+      </c>
+      <c r="G47" s="20">
+        <v>1</v>
+      </c>
+      <c r="H47" s="31"/>
+      <c r="I47" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J47" s="34"/>
+    </row>
+    <row r="48" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="J48" s="39"/>
+    </row>
+    <row r="49" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="J49" s="39"/>
+    </row>
+    <row r="50" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="26">
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="26">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="J32" s="27"/>
-    </row>
-    <row r="33" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="19"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="27"/>
-    </row>
-    <row r="34" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="19"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
+    </row>
+    <row r="52" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="19"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G6:G34">
-    <cfRule type="expression" dxfId="1" priority="120">
+  <conditionalFormatting sqref="G6:G52">
+    <cfRule type="expression" dxfId="1" priority="127">
       <formula>$B$5&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="121">
+    <cfRule type="expression" dxfId="0" priority="128">
       <formula>$G6&gt;23%</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="122">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2172,16 +2703,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="B5" xr:uid="{B38182F7-EC84-40F6-BA2D-AE0DE877BF4C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="C3" xr:uid="{1457F039-B3D5-448A-837F-D49E8A0FCBAC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list in this worksheet. Enter the year for this list in cell C3." sqref="A1" xr:uid="{31932FD4-B517-4C1F-BA15-487E3106AB53}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C6:C17 C19:C34" xr:uid="{45A78372-DA0A-4A0C-A95D-4D40A472B4C2}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C6:C17 C19:C52" xr:uid="{45A78372-DA0A-4A0C-A95D-4D40A472B4C2}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D6:D17 D19:D34" xr:uid="{1746B7BF-78E5-4E54-BE88-5E8C6CA65263}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D6:D17 D19:D52" xr:uid="{1746B7BF-78E5-4E54-BE88-5E8C6CA65263}">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F6:F17 F20:F21" xr:uid="{9F2D2676-BBD6-4B2B-92C4-2398C4119CE3}">
       <formula1>F6&gt;=E6</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G6:G34" xr:uid="{4468E986-E743-4C01-AC99-D8FD9FCB07FE}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G6:G52" xr:uid="{4468E986-E743-4C01-AC99-D8FD9FCB07FE}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2206,10 +2737,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G6:G34</xm:sqref>
+          <xm:sqref>G6:G52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="126" id="{3608503F-5218-4E3A-A640-EFD947534BA8}">
+          <x14:cfRule type="iconSet" priority="133" id="{3608503F-5218-4E3A-A640-EFD947534BA8}">
             <x14:iconSet iconSet="3Symbols2" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2225,7 +2756,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I6:I34</xm:sqref>
+          <xm:sqref>I6:I52</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/stock_to-do_list.xlsx
+++ b/stock_to-do_list.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267687F3-3EDB-4A5B-9BEC-17C9C62D6739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ECFAAA-3F4E-40D7-BE9F-96F6E28649B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
   <si>
     <t>Task</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>Add "Split" to aquasiions</t>
+  </si>
+  <si>
+    <t>Add Price -&gt; Fundamental Corraltiona Chart</t>
+  </si>
+  <si>
+    <t>Refactor Aanalyser_dao &amp; analyser</t>
+  </si>
+  <si>
+    <t>move all DAOs to dao folder</t>
   </si>
 </sst>
 </file>
@@ -569,7 +578,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -689,6 +698,9 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1160,8 +1172,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F3069E3-F47B-46B9-847E-ABBC3255F41C}" name="ToDoList2" displayName="ToDoList2" ref="B5:J50" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B5:J50" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F3069E3-F47B-46B9-847E-ABBC3255F41C}" name="ToDoList2" displayName="ToDoList2" ref="B5:J52" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B5:J52" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1435,10 +1447,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J52"/>
+  <dimension ref="B1:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2605,73 +2617,137 @@
       <c r="J47" s="34"/>
     </row>
     <row r="48" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="37"/>
+      <c r="B48" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="32">
+        <v>45952</v>
+      </c>
+      <c r="F48" s="32">
+        <v>45955</v>
+      </c>
+      <c r="G48" s="20">
+        <v>0</v>
+      </c>
+      <c r="H48" s="31"/>
       <c r="I48" s="33">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="J48" s="39"/>
+      <c r="J48" s="34"/>
     </row>
     <row r="49" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="36"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="37"/>
+      <c r="B49" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="32">
+        <v>45953</v>
+      </c>
+      <c r="F49" s="32">
+        <v>45955</v>
+      </c>
+      <c r="G49" s="20">
+        <v>0</v>
+      </c>
+      <c r="H49" s="31"/>
       <c r="I49" s="33">
         <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
         <v>-1</v>
       </c>
-      <c r="J49" s="39"/>
+      <c r="J49" s="34"/>
     </row>
     <row r="50" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="40">
+        <v>45955</v>
+      </c>
+      <c r="F50" s="38">
+        <v>45960</v>
+      </c>
+      <c r="G50" s="20">
+        <v>0</v>
+      </c>
+      <c r="H50" s="37"/>
+      <c r="I50" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="J50" s="39"/>
+    </row>
+    <row r="51" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="33">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="J51" s="39"/>
+    </row>
+    <row r="52" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="26">
-        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
-        <v>-1</v>
-      </c>
-      <c r="J50" s="27"/>
-    </row>
-    <row r="51" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="27"/>
-    </row>
-    <row r="52" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="19"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
       <c r="G52" s="20"/>
       <c r="H52" s="23"/>
-      <c r="I52" s="26"/>
+      <c r="I52" s="26">
+        <f ca="1">IF(AND(ToDoList2[[#This Row],[Status ]]="Complete",ToDoList2[[#This Row],[% Complete]]=1),1,IF(ISBLANK(ToDoList2[[#This Row],[Due date ]]),-1,IF(AND(ToDoList2[[#This Row],[Status ]]&lt;&gt;"Complete",TODAY()&gt;ToDoList2[[#This Row],[Due date ]]),0,-1)))</f>
+        <v>-1</v>
+      </c>
       <c r="J52" s="27"/>
     </row>
+    <row r="53" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="19"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27"/>
+    </row>
+    <row r="54" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="19"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G6:G52">
+  <conditionalFormatting sqref="G6:G54">
     <cfRule type="expression" dxfId="1" priority="127">
       <formula>$B$5&lt;&gt;""</formula>
     </cfRule>
@@ -2703,16 +2779,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Task in this column under this heading. Use heading filters to find specific entry" sqref="B5" xr:uid="{B38182F7-EC84-40F6-BA2D-AE0DE877BF4C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Worksheet title is in this cell" sqref="C3" xr:uid="{1457F039-B3D5-448A-837F-D49E8A0FCBAC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list in this worksheet. Enter the year for this list in cell C3." sqref="A1" xr:uid="{31932FD4-B517-4C1F-BA15-487E3106AB53}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C6:C17 C19:C52" xr:uid="{45A78372-DA0A-4A0C-A95D-4D40A472B4C2}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="C6:C17 C19:C54" xr:uid="{45A78372-DA0A-4A0C-A95D-4D40A472B4C2}">
       <formula1>"Low, Normal, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D6:D17 D19:D52" xr:uid="{1746B7BF-78E5-4E54-BE88-5E8C6CA65263}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="D6:D17 D19:D54" xr:uid="{1746B7BF-78E5-4E54-BE88-5E8C6CA65263}">
       <formula1>"Not Started,In Progress, Deferred, Complete"</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The Due Date needs to be greater than or equal to the Start Date. Select YES to keep the entry, NO to try again and CANCEL to clear the cell" sqref="F6:F17 F20:F21" xr:uid="{9F2D2676-BBD6-4B2B-92C4-2398C4119CE3}">
       <formula1>F6&gt;=E6</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G6:G52" xr:uid="{4468E986-E743-4C01-AC99-D8FD9FCB07FE}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select entry from the list. Select CANCEL, then press ALT+DOWN ARROW to open the drop-down list, then ENTER to make selection" sqref="G6:G54" xr:uid="{4468E986-E743-4C01-AC99-D8FD9FCB07FE}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2737,7 +2813,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G6:G52</xm:sqref>
+          <xm:sqref>G6:G54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="133" id="{3608503F-5218-4E3A-A640-EFD947534BA8}">
@@ -2756,7 +2832,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I6:I52</xm:sqref>
+          <xm:sqref>I6:I54</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2774,26 +2850,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3105,6 +3161,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1927D84C-86D9-49C7-9CBD-907930F4AA77}">
   <ds:schemaRefs>
@@ -3114,18 +3190,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AE6ABC-1788-4F26-8B46-F996683B878B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3146,6 +3210,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A768129-7A14-4E61-BBA0-3CBDAB298269}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>